--- a/monthly_finally.xlsx
+++ b/monthly_finally.xlsx
@@ -510,7 +510,7 @@
         <v>4.473826348708112</v>
       </c>
       <c r="I2" t="n">
-        <v>7845</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="3">
@@ -539,7 +539,7 @@
         <v>4.303276439438141</v>
       </c>
       <c r="I3" t="n">
-        <v>7391</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         <v>6.596002084293334</v>
       </c>
       <c r="I4" t="n">
-        <v>11560</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="5">
@@ -597,7 +597,7 @@
         <v>10.90486105741313</v>
       </c>
       <c r="I5" t="n">
-        <v>19873</v>
+        <v>14468</v>
       </c>
     </row>
     <row r="6">
@@ -626,7 +626,7 @@
         <v>14.06309578586475</v>
       </c>
       <c r="I6" t="n">
-        <v>25340</v>
+        <v>18943</v>
       </c>
     </row>
     <row r="7">
@@ -655,7 +655,7 @@
         <v>18.68172417427454</v>
       </c>
       <c r="I7" t="n">
-        <v>31162</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="8">
@@ -684,7 +684,7 @@
         <v>22.55734633132084</v>
       </c>
       <c r="I8" t="n">
-        <v>41044</v>
+        <v>31412</v>
       </c>
     </row>
     <row r="9">
@@ -713,7 +713,7 @@
         <v>22.22037817911064</v>
       </c>
       <c r="I9" t="n">
-        <v>38699</v>
+        <v>30821</v>
       </c>
     </row>
     <row r="10">
@@ -742,7 +742,7 @@
         <v>15.51774902460867</v>
       </c>
       <c r="I10" t="n">
-        <v>28312</v>
+        <v>20964</v>
       </c>
     </row>
     <row r="11">
@@ -771,7 +771,7 @@
         <v>11.50998742895991</v>
       </c>
       <c r="I11" t="n">
-        <v>22178</v>
+        <v>15273</v>
       </c>
     </row>
     <row r="12">
@@ -800,7 +800,7 @@
         <v>7.469190478675126</v>
       </c>
       <c r="I12" t="n">
-        <v>13492</v>
+        <v>9629</v>
       </c>
     </row>
     <row r="13">
@@ -829,7 +829,7 @@
         <v>4.855688073691034</v>
       </c>
       <c r="I13" t="n">
-        <v>8612</v>
+        <v>6085</v>
       </c>
     </row>
   </sheetData>
